--- a/biology/Zoologie/Ankylosauridae/Ankylosauridae.xlsx
+++ b/biology/Zoologie/Ankylosauridae/Ankylosauridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les ankylosauridés (Ankylosauridae) sont une famille éteinte de dinosaures ornithischiens de l'infra-ordre des ankylosauriens. Ce sont des descendants des nodosauridés dont on trouve des fossiles dans les couches datant du Crétacé. Herbivores, ils étaient caractérisés par une armure osseuse recouvrant la majeure partie de leur corps à l'exception du ventre. Certains avaient même des paupières cuirassées. Cette protection les mettait à l'abri de la plupart des prédateurs de l'époque qui étaient obligés de les retourner pour parvenir à leurs fins. La plupart étaient également équipés de redoutables armes défensives.
 </t>
@@ -511,15 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'armure lourde, formant une véritable carapace sur le dos des ankylosauridés et leurs queues plissées, leur donnent un aspect superficiellement similaire aux mammifères glyptodons et, dans une moindre mesure, aux tortues géantes Meiolania d'Australie).
 Leurs têtes lourdement armées ont formé un bec édenté à l'avant (comparable au bec des oiseaux modernes). Les côtés de la bouche et de la mâchoire inférieure portent de petites dents, profondément incrustées dans la mâchoire. Parmi tous les ornithischiens, l'anatomie endocrânienne de Ankylosaurus est la moins bien connue.
-Armure
-Les Ankylosauridae avaient généralement un blindage osseux sur le dos. Cette armure est souvent parsemée d'une variété de pics, de blocs...
-Les Ankylosauridae les plus munis en termes de défense avaient même des paupières cuirassées.
-Queue
-De nombreux Ankylosauridae ont également une masse élargie de l'os à l'extrémité de la queue, formée de deux morceaux d'os élargis. Cette queue a traditionnellement été utilisée pour séparer les Ankylosauridae de leurs proches parents.
 </t>
         </is>
       </c>
@@ -545,34 +554,146 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Armure</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Ankylosauridae avaient généralement un blindage osseux sur le dos. Cette armure est souvent parsemée d'une variété de pics, de blocs...
+Les Ankylosauridae les plus munis en termes de défense avaient même des paupières cuirassées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ankylosauridae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ankylosauridae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Queue</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De nombreux Ankylosauridae ont également une masse élargie de l'os à l'extrémité de la queue, formée de deux morceaux d'os élargis. Cette queue a traditionnellement été utilisée pour séparer les Ankylosauridae de leurs proches parents.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ankylosauridae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ankylosauridae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La famille Ankylosauridae a été nommée pour la première fois par Barnum Brown en 1908 et la sous-famille Ankylosaurinae  par Franz Nopsca en 1918.
-Taxonomie
-La sous-famille des Polacanthinae était souvent incluse dans la famille des Ankylosauridae. Cependant, les analyses phylogénétiques depuis 2000 ont révélé que les Polacanthinae appartiennent soit à une famille regroupant les nodosauridés primitifs, soit à une sous-famille de nodosauridés[1],[2].
-La classification suivante suit celle de Thompson et ses collègues, sauf note spécifiée[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille Ankylosauridae a été nommée pour la première fois par Barnum Brown en 1908 et la sous-famille Ankylosaurinae  par Franz Nopsca en 1918.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ankylosauridae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ankylosauridae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La sous-famille des Polacanthinae était souvent incluse dans la famille des Ankylosauridae. Cependant, les analyses phylogénétiques depuis 2000 ont révélé que les Polacanthinae appartiennent soit à une famille regroupant les nodosauridés primitifs, soit à une sous-famille de nodosauridés,.
+La classification suivante suit celle de Thompson et ses collègues, sauf note spécifiée :
 Famille Ankylosauridae
-Aletopelta[3]
+Aletopelta
 Cedarpelta
-Chuanqilong[4]
+Chuanqilong
 Gobisaurus
 Liaoningosaurus
 Minmi
 Shamosaurus
-Ziapelta[5]
+Ziapelta
 Sous-famille Ankylosaurinae
 Akainacephalus
-Ahshislepelta[6]
+Ahshislepelta
 Ankylosaurus
 Crichtonsaurus
 Dyoplosaurus
 Euoplocephalus
 Minotaurasaurus
 Nodocephalosaurus
-Oohkotokia[7]
+Oohkotokia
 Pinacosaurus
 Saichania
 Scolosaurus
@@ -585,35 +706,109 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Ankylosauridae</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ankylosauridae</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cladogramme de la famille Ankylosauridae résulte d'une analyse menée en 2011 par les paléontologues Richard S. Thompson, Jolyon C. Parish, Susannah CR Maidment et Paul M. Barrett[8].
-Différentes dates des découvertes des Ankylosauridae
-Différentes générations d'Ankylosauridae
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cladogramme de la famille Ankylosauridae résulte d'une analyse menée en 2011 par les paléontologues Richard S. Thompson, Jolyon C. Parish, Susannah CR Maidment et Paul M. Barrett.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ankylosauridae</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ankylosauridae</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Différentes dates des découvertes des Ankylosauridae</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ankylosauridae</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ankylosauridae</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Différentes générations d'Ankylosauridae</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 </t>
         </is>
       </c>
